--- a/annual_data/1949.xlsx
+++ b/annual_data/1949.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-06-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '天津市', 'job_name': '天津市天津大学机械系学生'}</t>
+          <t>{'begin_time': Timestamp('1946-06-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '天津市', 'type': '学校', 'rank': 0, 'job_name': '天津市天津大学机械系学生'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-07-01 00:00:00'), 'end_time': Timestamp('1954-06-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区自治运动联合会组织部干事'}</t>
+          <t>{'begin_time': Timestamp('1946-07-01 00:00:00'), 'end_time': Timestamp('1954-06-01 00:00:00'), 'location': '内蒙古自治区', 'type': '其他', 'rank': 0, 'job_name': '内蒙古自治区自治运动联合会组织部干事'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-07-01 00:00:00'), 'end_time': Timestamp('1954-06-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区自治学院中学部副主任、政治教员'}</t>
+          <t>{'begin_time': Timestamp('1946-07-01 00:00:00'), 'end_time': Timestamp('1954-06-01 00:00:00'), 'location': '内蒙古自治区', 'type': '学校', 'rank': 0, 'job_name': '内蒙古自治区自治学院中学部副主任、政治教员'}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-07-01 00:00:00'), 'end_time': Timestamp('1954-06-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区文工团团长、党支部书记'}</t>
+          <t>{'begin_time': Timestamp('1946-07-01 00:00:00'), 'end_time': Timestamp('1954-06-01 00:00:00'), 'location': '内蒙古自治区', 'type': '其他', 'rank': 5, 'job_name': '内蒙古自治区文工团团长、党支部书记'}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1953-05-01 00:00:00'), 'location': '中央', 'job_name': '中央中共中央东北局青委工作'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1953-05-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 1, 'job_name': '中央中共中央东北局青委工作'}</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1953-05-01 00:00:00'), 'location': '中央', 'job_name': '中央地质矿产部/厅/局抚顺西露天矿历任数职'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1953-05-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 4, 'job_name': '中央地质矿产部/厅/局抚顺西露天矿历任数职'}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-08-01 00:00:00'), 'end_time': Timestamp('1952-05-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('1945-08-01 00:00:00'), 'end_time': Timestamp('1952-05-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 0, 'job_name': '黑龙江省党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '中央', 'job_name': '中央机械工业（第一机械）部/厅/局第二设计分局电气专业科科长'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '中央', 'type': '中央企业', 'rank': 0, 'job_name': '中央机械工业（第一机械）部/厅/局第二设计分局电气专业科科长'}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海益民食品1厂工程师'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 0, 'job_name': '上海市上海益民食品1厂工程师'}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海制皂厂副厂长'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '上海市', 'type': '地方企业', 'rank': 0, 'job_name': '上海市上海制皂厂副厂长'}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市清华大学电机系电机制造专业学生'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 1, 'job_name': '北京市清华大学电机系电机制造专业学生'}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'job_name': '浙江省宁波市慈溪县政治交通部委员'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市慈溪县政治交通部委员'}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'job_name': '浙江省宁波市慈溪县组织部委员'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市慈溪县组织部委员'}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'job_name': '浙江省宁波市慈溪县宣传部干事'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市慈溪县宣传部干事'}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市基点乡工作组副组长、组长'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市基点乡工作组副组长、组长'}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'job_name': '浙江省宁波市慈溪县巡视组组长'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1950-06-01 00:00:00'), 'location': '浙江省宁波市慈溪县', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市慈溪县巡视组组长'}</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1952-07-01 00:00:00'), 'location': '中央', 'job_name': '中央清华大学社会学系学生'}</t>
+          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1952-07-01 00:00:00'), 'location': '中央', 'type': '学校', 'rank': 1, 'job_name': '中央清华大学社会学系学生'}</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1952-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市第十区第二街政府民政委员'}</t>
+          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1952-07-01 00:00:00'), 'location': '北京市', 'type': '基层组织', 'rank': 0, 'job_name': '北京市第十区第二街政府民政委员'}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1952-07-01 00:00:00'), 'location': '北京市', 'job_name': '北京市公安部/厅/局外三分局历任数职'}</t>
+          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1952-07-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 0, 'job_name': '北京市公安部/厅/局外三分局历任数职'}</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-06-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '四川省', 'job_name': '四川省四川大学先修班学生'}</t>
+          <t>{'begin_time': Timestamp('1947-06-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '四川省', 'type': '学校', 'rank': 1, 'job_name': '四川省四川大学先修班学生'}</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-06-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '四川省', 'job_name': '四川省四川大学中文系学生'}</t>
+          <t>{'begin_time': Timestamp('1947-06-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '四川省', 'type': '学校', 'rank': 1, 'job_name': '四川省四川大学中文系学生'}</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-07-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '江苏省南京市', 'job_name': '江苏省南京市市立商业职业学校学生'}</t>
+          <t>{'begin_time': Timestamp('1947-07-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '江苏省南京市', 'type': '学校', 'rank': 1, 'job_name': '江苏省南京市市立商业职业学校学生'}</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '四川省成都市', 'job_name': '四川省成都市成都铭贤学院纺织工程系学生'}</t>
+          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '四川省成都市', 'type': '学校', 'rank': 1, 'job_name': '四川省成都市成都铭贤学院纺织工程系学生'}</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '陕西省西安市', 'job_name': '陕西省西安市西北工业大学纺织工程系学生'}</t>
+          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '陕西省西安市', 'type': '学校', 'rank': 1, 'job_name': '陕西省西安市西北工业大学纺织工程系学生'}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1951-05-01 00:00:00'), 'location': '山西省吕梁市汾阳市', 'job_name': '山西省吕梁市汾阳市共青团委书记'}</t>
+          <t>{'begin_time': Timestamp('1948-06-01 00:00:00'), 'end_time': Timestamp('1951-05-01 00:00:00'), 'location': '山西省吕梁市汾阳市', 'type': '共青团', 'rank': 5, 'job_name': '山西省吕梁市汾阳市共青团委书记'}</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-06-01 00:00:00'), 'end_time': Timestamp('1952-06-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京市机器厂工人'}</t>
+          <t>{'begin_time': Timestamp('1947-06-01 00:00:00'), 'end_time': Timestamp('1952-06-01 00:00:00'), 'location': '北京市', 'type': '地方企业', 'rank': 1, 'job_name': '北京市北京市机器厂工人'}</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1936-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '西藏自治区昌都市', 'job_name': '西藏自治区昌都市nan总管'}</t>
+          <t>{'begin_time': Timestamp('1936-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '西藏自治区昌都市', 'type': nan, 'rank': 0, 'job_name': '西藏自治区昌都市地点缺失总管'}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1956-01-01 00:00:00'), 'location': '吉林省吉林市', 'job_name': '吉林省吉林市组织部科长'}</t>
+          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1956-01-01 00:00:00'), 'location': '吉林省吉林市', 'type': '党委', 'rank': 0, 'job_name': '吉林省吉林市组织部科长'}</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1956-01-01 00:00:00'), 'location': '吉林省吉林市', 'job_name': '吉林省吉林市办公厅/室主任'}</t>
+          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1956-01-01 00:00:00'), 'location': '吉林省吉林市', 'type': '党委', 'rank': 0, 'job_name': '吉林省吉林市办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省绥化市绥棱县', 'job_name': '黑龙江省绥化市绥棱县财政部/厅/局副科长'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省绥化市绥棱县', 'type': '政府/国务院', 'rank': 0, 'job_name': '黑龙江省绥化市绥棱县财政部/厅/局副科长'}</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省绥化市绥棱县', 'job_name': '黑龙江省绥化市绥棱县政府/国务院（综合）副县长'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省绥化市绥棱县', 'type': '政府/国务院', 'rank': 0, 'job_name': '黑龙江省绥化市绥棱县政府/国务院（综合）副县长'}</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省松花江地区', 'job_name': '黑龙江省松花江地区水利电力部/厅/局副局长'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省松花江地区', 'type': '政府/国务院', 'rank': 0, 'job_name': '黑龙江省松花江地区水利电力部/厅/局副局长'}</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省绥化市', 'job_name': '黑龙江省绥化市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1976-06-01 00:00:00'), 'location': '黑龙江省绥化市', 'type': '党委', 'rank': 0, 'job_name': '黑龙江省绥化市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '北京市', 'job_name': '北京市北京大学物理系机械系学生'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '北京市', 'type': '学校', 'rank': 0, 'job_name': '北京市北京大学物理系机械系学生'}</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'job_name': '第一野战军后勤部副部长'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '第一野战军后勤部副部长'}</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '上海市', 'job_name': '上海市上海纺织工业专科学校机械系学生'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1950-05-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 0, 'job_name': '上海市上海纺织工业专科学校机械系学生'}</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-11-01 00:00:00'), 'end_time': Timestamp('1965-08-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('1948-11-01 00:00:00'), 'end_time': Timestamp('1965-08-01 00:00:00'), 'location': '辽宁省沈阳市', 'type': '政府/国务院', 'rank': 0, 'job_name': '辽宁省沈阳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-11-01 00:00:00'), 'end_time': Timestamp('1965-08-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1948-11-01 00:00:00'), 'end_time': Timestamp('1965-08-01 00:00:00'), 'location': '辽宁省沈阳市', 'type': '党委', 'rank': 0, 'job_name': '辽宁省沈阳市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-11-01 00:00:00'), 'end_time': Timestamp('1965-08-01 00:00:00'), 'location': '辽宁省沈阳市', 'job_name': '辽宁省沈阳市政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('1948-11-01 00:00:00'), 'end_time': Timestamp('1965-08-01 00:00:00'), 'location': '辽宁省沈阳市', 'type': '政协', 'rank': 0, 'job_name': '辽宁省沈阳市政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1944-10-01 00:00:00'), 'end_time': Timestamp('1950-02-01 00:00:00'), 'location': '朔县', 'job_name': '朔县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1944-10-01 00:00:00'), 'end_time': Timestamp('1950-02-01 00:00:00'), 'location': '朔县', 'type': '党委', 'rank': 0, 'job_name': '朔县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '苏鲁豫边区丰县', 'job_name': '苏鲁豫边区丰县常备旅政训处股长'}</t>
+          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '苏鲁豫边区丰县', 'type': '党委', 'rank': 0, 'job_name': '苏鲁豫边区丰县常备旅政训处股长'}</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '苏鲁豫边区', 'job_name': '苏鲁豫边区军事部政治处干事'}</t>
+          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '苏鲁豫边区', 'type': '党委', 'rank': 0, 'job_name': '苏鲁豫边区军事部政治处干事'}</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '湖西地委', 'job_name': '湖西地委文委副书记'}</t>
+          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '湖西地委', 'type': '党委', 'rank': 0, 'job_name': '湖西地委文委副书记'}</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '鱼台县', 'job_name': '鱼台县党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '鱼台县', 'type': '党委', 'rank': 0, 'job_name': '鱼台县党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '平原省湖西地委', 'job_name': '平原省湖西地委青委副书记'}</t>
+          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '平原省湖西地委', 'type': '党委', 'rank': 0, 'job_name': '平原省湖西地委青委副书记'}</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '华北局', 'job_name': '华北局青委宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '华北局', 'type': '党委', 'rank': 0, 'job_name': '华北局青委宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '华北局', 'job_name': '华北局青委副书记'}</t>
+          <t>{'begin_time': Timestamp('1939-01-01 00:00:00'), 'end_time': Timestamp('1954-01-01 00:00:00'), 'location': '华北局', 'type': '党委', 'rank': 0, 'job_name': '华北局青委副书记'}</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省胶东', 'job_name': '山东省胶东青年抗日救国会会长'}</t>
+          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省胶东', 'type': '共青团', 'rank': 0, 'job_name': '山东省胶东青年抗日救国会会长'}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省鲁南区', 'job_name': '山东省鲁南区党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省鲁南区', 'type': '党委', 'rank': 0, 'job_name': '山东省鲁南区党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省鲁中区', 'job_name': '山东省鲁中区宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省鲁中区', 'type': '党委', 'rank': 0, 'job_name': '山东省鲁中区宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省泰山市', 'job_name': '山东省泰山市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1938-09-01 00:00:00'), 'end_time': Timestamp('1950-03-01 00:00:00'), 'location': '山东省泰山市', 'type': '党委', 'rank': 0, 'job_name': '山东省泰山市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1944-10-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '广东省', 'job_name': '广东省中区纵队政治部主任'}</t>
+          <t>{'begin_time': Timestamp('1944-10-01 00:00:00'), 'end_time': Timestamp('1955-01-01 00:00:00'), 'location': '广东省', 'type': '军队', 'rank': 0, 'job_name': '广东省中区纵队政治部主任'}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'job_name': '冀鲁豫军区2纵队司令部秘书'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '冀鲁豫军区2纵队司令部秘书'}</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'job_name': '冀鲁豫军区政治部部长'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '冀鲁豫军区政治部部长'}</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'job_name': '第二野战军10军政治部副主任'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '第二野战军10军政治部副主任'}</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-12-01 00:00:00'), 'end_time': Timestamp('1951-12-01 00:00:00'), 'location': '冀东区第十四地区', 'job_name': '冀东区第十四地区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1947-12-01 00:00:00'), 'end_time': Timestamp('1951-12-01 00:00:00'), 'location': '冀东区第十四地区', 'type': '党委', 'rank': 0, 'job_name': '冀东区第十四地区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-12-01 00:00:00'), 'end_time': Timestamp('1951-12-01 00:00:00'), 'location': '河北省唐山市', 'job_name': '河北省唐山市政府/国务院（综合）专员'}</t>
+          <t>{'begin_time': Timestamp('1947-12-01 00:00:00'), 'end_time': Timestamp('1951-12-01 00:00:00'), 'location': '河北省唐山市', 'type': '政府/国务院', 'rank': 0, 'job_name': '河北省唐山市政府/国务院（综合）专员'}</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-12-01 00:00:00'), 'end_time': Timestamp('1951-12-01 00:00:00'), 'location': '河北省唐山市', 'job_name': '河北省唐山市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1947-12-01 00:00:00'), 'end_time': Timestamp('1951-12-01 00:00:00'), 'location': '河北省唐山市', 'type': '党委', 'rank': 0, 'job_name': '河北省唐山市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1944-09-01 00:00:00'), 'end_time': Timestamp('1953-01-01 00:00:00'), 'location': '西北局', 'job_name': '西北局组织部部长'}</t>
+          <t>{'begin_time': Timestamp('1944-09-01 00:00:00'), 'end_time': Timestamp('1953-01-01 00:00:00'), 'location': '西北局', 'type': '党委', 'rank': 0, 'job_name': '西北局组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1944-09-01 00:00:00'), 'end_time': Timestamp('1953-01-01 00:00:00'), 'location': '西北局', 'job_name': '西北局党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1944-09-01 00:00:00'), 'end_time': Timestamp('1953-01-01 00:00:00'), 'location': '西北局', 'type': '党委', 'rank': 0, 'job_name': '西北局党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '辽南第三地区', 'job_name': '辽南第三地区党委常委会/政治局常委'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '辽南第三地区', 'type': '党委', 'rank': 0, 'job_name': '辽南第三地区党委常委会/政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '辽南大连市', 'job_name': '辽南大连市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1946-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '辽南大连市', 'type': '党委', 'rank': 0, 'job_name': '辽南大连市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1950-08-01 00:00:00'), 'location': '东北局', 'job_name': '东北局东北工业部吉林化工机械厂车间主任'}</t>
+          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1950-08-01 00:00:00'), 'location': '东北局', 'type': '国有企业', 'rank': 0, 'job_name': '东北局东北工业部吉林化工机械厂车间主任'}</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1950-08-01 00:00:00'), 'location': '东北局', 'job_name': '东北局东北工业部锦西炼油厂机电三分厂厂长'}</t>
+          <t>{'begin_time': Timestamp('1948-09-01 00:00:00'), 'end_time': Timestamp('1950-08-01 00:00:00'), 'location': '东北局', 'type': '国有企业', 'rank': 0, 'job_name': '东北局东北工业部锦西炼油厂机电三分厂厂长'}</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市顾乡屯区', 'job_name': '黑龙江省哈尔滨市顾乡屯区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市顾乡屯区', 'type': '党委', 'rank': 0, 'job_name': '黑龙江省哈尔滨市顾乡屯区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'job_name': '黑龙江省哈尔滨市总工会公营企业部部长'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '黑龙江省哈尔滨市', 'type': '行业协会_人民团体', 'rank': 0, 'job_name': '黑龙江省哈尔滨市总工会公营企业部部长'}</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '东北局', 'job_name': '东北局东北总工会宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '东北局', 'type': '行业协会_人民团体', 'rank': 0, 'job_name': '东北局东北总工会宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '东北局', 'job_name': '东北局东北总工会副主席'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '东北局', 'type': '行业协会_人民团体', 'rank': 0, 'job_name': '东北局东北总工会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '河北省涞源县', 'job_name': '河北省涞源县三区区长'}</t>
+          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '河北省涞源县', 'type': '政府/国务院', 'rank': 0, 'job_name': '河北省涞源县三区区长'}</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '河北省涞源县', 'job_name': '河北省涞源县粮食部/厅/局局长'}</t>
+          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '河北省涞源县', 'type': '政府/国务院', 'rank': 0, 'job_name': '河北省涞源县粮食部/厅/局局长'}</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '龙宣怀联合县', 'job_name': '龙宣怀联合县政府/国务院（综合）县长'}</t>
+          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '龙宣怀联合县', 'type': '政府/国务院', 'rank': 0, 'job_name': '龙宣怀联合县政府/国务院（综合）县长'}</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '冀察专区', 'job_name': '冀察专区政府/国务院（综合）副专员'}</t>
+          <t>{'begin_time': Timestamp('1938-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '冀察专区', 'type': '政府/国务院', 'rank': 0, 'job_name': '冀察专区政府/国务院（综合）副专员'}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1943-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '西北局三边分区伊克昭盟', 'job_name': '西北局三边分区伊克昭盟党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1943-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '西北局三边分区伊克昭盟', 'type': '党委', 'rank': 0, 'job_name': '西北局三边分区伊克昭盟党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '苏北第十一专署', 'job_name': '苏北第十一专署财经处处长'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '苏北第十一专署', 'type': '政府/国务院', 'rank': 0, 'job_name': '苏北第十一专署财经处处长'}</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '甘泉县', 'job_name': '甘泉县党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '甘泉县', 'type': '党委', 'rank': 0, 'job_name': '甘泉县党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '滁县地委', 'job_name': '滁县地委宣传部副部长'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '滁县地委', 'type': '党委', 'rank': 0, 'job_name': '滁县地委宣传部副部长'}</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '东南县', 'job_name': '东南县党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '东南县', 'type': '党委', 'rank': 0, 'job_name': '东南县党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '皖北区', 'job_name': '皖北区工委副书记'}</t>
+          <t>{'begin_time': Timestamp('1947-01-01 00:00:00'), 'end_time': Timestamp('1952-01-01 00:00:00'), 'location': '皖北区', 'type': '共青团', 'rank': 0, 'job_name': '皖北区工委副书记'}</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1954-08-01 00:00:00'), 'location': '辽北省', 'job_name': '辽北省政府/国务院（综合）副主席'}</t>
+          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1954-08-01 00:00:00'), 'location': '辽北省', 'type': '政府/国务院', 'rank': 0, 'job_name': '辽北省政府/国务院（综合）副主席'}</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1954-08-01 00:00:00'), 'location': '辽西省', 'job_name': '辽西省政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1954-08-01 00:00:00'), 'location': '辽西省', 'type': '政府/国务院', 'rank': 0, 'job_name': '辽西省政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1954-08-01 00:00:00'), 'location': '辽西省', 'job_name': '辽西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('1948-01-01 00:00:00'), 'end_time': Timestamp('1954-08-01 00:00:00'), 'location': '辽西省', 'type': '党委', 'rank': 0, 'job_name': '辽西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'job_name': '第二野战军1纵队58团政治委员'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '第二野战军1纵队58团政治委员'}</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'job_name': '第二野战军1纵队59团政治委员'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1950-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '第二野战军1纵队59团政治委员'}</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'job_name': '晋冀鲁豫军区6纵队17旅副旅长'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '晋冀鲁豫军区6纵队17旅副旅长'}</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'job_name': '晋冀鲁豫军区6纵队16旅旅长'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '晋冀鲁豫军区6纵队16旅旅长'}</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'job_name': '中原野战军6纵队16旅旅长'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '中原野战军6纵队16旅旅长'}</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'job_name': '第二野战军3兵团12军34师师长'}</t>
+          <t>{'begin_time': Timestamp('1945-01-01 00:00:00'), 'end_time': Timestamp('1951-01-01 00:00:00'), 'location': '', 'type': '军队', 'rank': 0, 'job_name': '第二野战军3兵团12军34师师长'}</t>
         </is>
       </c>
     </row>
